--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A725A3-AE43-5040-8597-EED816717D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC45A1A1-C1EE-4046-89EE-E4C2A32FF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44620" yWindow="2760" windowWidth="28240" windowHeight="17440" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
+    <workbookView xWindow="44620" yWindow="2760" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>UserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,22 @@
   </si>
   <si>
     <t>GuestTimesLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID(Key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName(Key)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,9 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C670AF-C231-5249-92B6-5AF421A2D653}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.83203125" defaultRowHeight="26"/>
   <cols>
@@ -431,13 +446,50 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FEA8CC-501B-5D44-8002-F0A4BEFC5E66}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC45A1A1-C1EE-4046-89EE-E4C2A32FF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8EE0C-3D66-6F4B-B550-8D412B918EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44620" yWindow="2760" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>

--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8EE0C-3D66-6F4B-B550-8D412B918EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18780881-5F6F-DB41-A036-7F2610D7B20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44620" yWindow="2760" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
+    <workbookView xWindow="44520" yWindow="2820" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="学工号息表" sheetId="1" r:id="rId1"/>
+    <sheet name="用户信息表" sheetId="2" r:id="rId2"/>
+    <sheet name="图书信息表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +63,22 @@
   </si>
   <si>
     <t>UserName(Key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniqueCode(Key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoverImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,11 +454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C670AF-C231-5249-92B6-5AF421A2D653}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.83203125" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="16384" width="35.83203125" style="1"/>
+    <col min="1" max="16384" width="32.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -465,17 +484,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FEA8CC-501B-5D44-8002-F0A4BEFC5E66}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="32.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -490,6 +505,39 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CB430-A706-1048-937D-DACFA7C60EFD}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="16384" width="32.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18780881-5F6F-DB41-A036-7F2610D7B20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D84E54E-E572-8745-930B-955B5321DD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44520" yWindow="2820" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BriefIntroduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,18 +519,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CB430-A706-1048-937D-DACFA7C60EFD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="16384" width="32.1640625" style="1"/>
+    <col min="1" max="4" width="32.1640625" style="1"/>
+    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -538,6 +544,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D84E54E-E572-8745-930B-955B5321DD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3822638-626E-4741-A5D9-B1AEF6961E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44520" yWindow="2820" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>

--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3822638-626E-4741-A5D9-B1AEF6961E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F28364-8E83-8541-8C15-D897089B6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44520" yWindow="2820" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
@@ -552,5 +552,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Excel打的SQL草稿.xlsx
+++ b/Excel打的SQL草稿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujilan/Documents/GitHub/Python_Course_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F28364-8E83-8541-8C15-D897089B6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5231A4E-76B1-FE4E-9DD9-251EE301BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44520" yWindow="2820" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
+    <workbookView xWindow="1580" yWindow="2500" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{B5A8C30E-2A92-A544-9650-69C7D741A62A}"/>
   </bookViews>
   <sheets>
     <sheet name="学工号息表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>UserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoverImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BriefIntroduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 管理,1 = 学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C670AF-C231-5249-92B6-5AF421A2D653}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
@@ -478,6 +486,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -486,10 +505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FEA8CC-501B-5D44-8002-F0A4BEFC5E66}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
@@ -511,6 +530,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -519,20 +552,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CB430-A706-1048-937D-DACFA7C60EFD}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="4" width="32.1640625" style="1"/>
-    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="32.1640625" style="1"/>
+    <col min="1" max="3" width="32.1640625" style="1"/>
+    <col min="4" max="4" width="34.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="32.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -540,13 +573,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
